--- a/Base.xlsx
+++ b/Base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kennedy\Desktop\Untitled Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codigos\Git\desafio_webscraping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD5209AA-DF29-4C4A-9414-40F3643A8127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D18B721-839E-440E-A98C-0DDDD560523F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3405" yWindow="4605" windowWidth="21600" windowHeight="11835" xr2:uid="{165DA1B5-CFAF-0549-82C7-08221AAFC43B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{165DA1B5-CFAF-0549-82C7-08221AAFC43B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -184,9 +184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,7 +224,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -330,7 +330,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -483,13 +483,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
